--- a/StudyProgressManagement/Uploads/ProductBacklog.xlsx
+++ b/StudyProgressManagement/Uploads/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duy94\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12BB825-F211-46C4-8D71-703A66746CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E828756D-31EE-4819-814F-C4E0EA7D50D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1AB0123-9DC0-4B55-AF40-9C4DBCCA928B}"/>
   </bookViews>
@@ -1237,28 +1237,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1915,10 +1915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD47662-3525-4436-AF5B-2278025523C8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1932,26 +1933,26 @@
     <col min="7" max="7" width="22.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="81" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="40" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="81" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="40" customWidth="1"/>
     <col min="12" max="20" width="11.44140625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2005,7 +2006,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2040,14 +2041,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="19" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="19" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="60" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="52" t="s">
@@ -2084,12 +2085,12 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="1:20" s="19" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="19" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="55"/>
-      <c r="C5" s="57"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="52" t="s">
         <v>25</v>
       </c>
@@ -2124,12 +2125,12 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="1:20" s="19" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="19" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="55"/>
-      <c r="C6" s="57"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="52" t="s">
         <v>28</v>
       </c>
@@ -2164,7 +2165,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="1:20" s="19" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="19" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -2208,14 +2209,14 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="21" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="56" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="51" t="s">
@@ -2252,12 +2253,12 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="21" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="55"/>
-      <c r="C9" s="60"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="53" t="s">
         <v>41</v>
       </c>
@@ -2299,7 +2300,7 @@
       <c r="B10" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="56" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="53" t="s">
@@ -2341,7 +2342,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="55"/>
-      <c r="C11" s="60"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="53" t="s">
         <v>48</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="55"/>
-      <c r="C12" s="60"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="53" t="s">
         <v>51</v>
       </c>
@@ -2423,7 +2424,7 @@
       <c r="B13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="56" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="51" t="s">
@@ -2465,7 +2466,7 @@
         <v>58</v>
       </c>
       <c r="B14" s="55"/>
-      <c r="C14" s="60"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="53" t="s">
         <v>59</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="55"/>
-      <c r="C15" s="60"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="53" t="s">
         <v>62</v>
       </c>
@@ -2540,14 +2541,14 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="56" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="53" t="s">
@@ -2584,12 +2585,12 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="55"/>
-      <c r="C17" s="60"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="53" t="s">
         <v>69</v>
       </c>
@@ -2624,12 +2625,12 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="55"/>
-      <c r="C18" s="60"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="53" t="s">
         <v>72</v>
       </c>
@@ -2664,12 +2665,12 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="55"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="53" t="s">
         <v>75</v>
       </c>
@@ -2704,12 +2705,12 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="55"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="53" t="s">
         <v>78</v>
       </c>
@@ -2744,14 +2745,14 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="56" t="s">
         <v>129</v>
       </c>
       <c r="D21" s="47" t="s">
@@ -2788,12 +2789,12 @@
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="47" t="s">
         <v>116</v>
       </c>
@@ -2828,12 +2829,12 @@
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
     </row>
-    <row r="23" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="60"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="47" t="s">
         <v>118</v>
       </c>
@@ -2868,12 +2869,12 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="60"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="47" t="s">
         <v>120</v>
       </c>
@@ -2908,12 +2909,12 @@
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
     </row>
-    <row r="25" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="55"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="47" t="s">
         <v>122</v>
       </c>
@@ -2948,14 +2949,14 @@
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="21" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="56" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="53" t="s">
@@ -2992,14 +2993,14 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="21" customFormat="1" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="53" t="s">
         <v>85</v>
       </c>
@@ -3085,7 +3086,7 @@
       <c r="B29" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="60" t="s">
         <v>162</v>
       </c>
       <c r="D29" s="51" t="s">
@@ -3122,12 +3123,12 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
     </row>
-    <row r="30" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B30" s="55"/>
-      <c r="C30" s="57"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="29" t="s">
         <v>96</v>
       </c>
@@ -3162,14 +3163,14 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
     </row>
-    <row r="31" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="60" t="s">
         <v>99</v>
       </c>
       <c r="D31" s="51" t="s">
@@ -3206,12 +3207,12 @@
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
     </row>
-    <row r="32" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="55"/>
-      <c r="C32" s="57"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="51" t="s">
         <v>103</v>
       </c>
@@ -3246,12 +3247,12 @@
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B33" s="55"/>
-      <c r="C33" s="57"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="51" t="s">
         <v>106</v>
       </c>
@@ -3286,12 +3287,12 @@
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="1:20" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="25.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="58"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="54" t="s">
         <v>109</v>
       </c>
@@ -3333,10 +3334,10 @@
       <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="59"/>
+      <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="42"/>
@@ -3399,19 +3400,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I34" xr:uid="{4CD47662-3525-4436-AF5B-2278025523C8}"/>
+  <autoFilter ref="A2:I34" xr:uid="{4CD47662-3525-4436-AF5B-2278025523C8}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="H38:I38"/>
@@ -3420,6 +3416,17 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="K3:K34">
